--- a/Data/ADSDataPoints_comments.xlsx
+++ b/Data/ADSDataPoints_comments.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="714">
   <si>
     <t xml:space="preserve">Info:
 AT %Q* stands for outgoing values from PLC perspective
@@ -676,6 +676,9 @@
     <t xml:space="preserve">Mostly Constant</t>
   </si>
   <si>
+    <t xml:space="preserve">Flap / Valve</t>
+  </si>
+  <si>
     <t xml:space="preserve">fAHUFlapEHASetADS </t>
   </si>
   <si>
@@ -727,6 +730,9 @@
     <t xml:space="preserve">fAHUFanETASpeedActADS</t>
   </si>
   <si>
+    <t xml:space="preserve">Speed</t>
+  </si>
+  <si>
     <t xml:space="preserve">fAHUFanETASpeedSetADS</t>
   </si>
   <si>
@@ -739,9 +745,15 @@
     <t xml:space="preserve">Varying</t>
   </si>
   <si>
+    <t xml:space="preserve">Vdp</t>
+  </si>
+  <si>
     <t xml:space="preserve">fAHUFanETAVolFlowActADS</t>
   </si>
   <si>
+    <t xml:space="preserve">Volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">fAHUFanSUPSpeedActADS</t>
   </si>
   <si>
@@ -766,6 +778,9 @@
     <t xml:space="preserve">fAHUTempEHAADS</t>
   </si>
   <si>
+    <t xml:space="preserve">Temperature</t>
+  </si>
+  <si>
     <t xml:space="preserve">fAHUTempETAADS</t>
   </si>
   <si>
@@ -781,6 +796,9 @@
     <t xml:space="preserve">fAHUHumEHAADS</t>
   </si>
   <si>
+    <t xml:space="preserve">Humidity</t>
+  </si>
+  <si>
     <t xml:space="preserve">fAHUHumETAADS</t>
   </si>
   <si>
@@ -799,6 +817,9 @@
     <t xml:space="preserve">Boolean</t>
   </si>
   <si>
+    <t xml:space="preserve">Frost</t>
+  </si>
+  <si>
     <t xml:space="preserve">//Preheater datapoints</t>
   </si>
   <si>
@@ -832,19 +853,34 @@
     <t xml:space="preserve">eAHUPHPumpContModeADS</t>
   </si>
   <si>
+    <t xml:space="preserve">Control Mode</t>
+  </si>
+  <si>
     <t xml:space="preserve">eAHUPHPumpContModeADSmirror</t>
   </si>
   <si>
     <t xml:space="preserve">bAHUPHPumpErrorADS </t>
   </si>
   <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
     <t xml:space="preserve">bAHUPHPumpOperatingADS</t>
   </si>
   <si>
+    <t xml:space="preserve">Pump Operating</t>
+  </si>
+  <si>
     <t xml:space="preserve">fAHUPHPumpPowerADS</t>
   </si>
   <si>
+    <t xml:space="preserve">Power</t>
+  </si>
+  <si>
     <t xml:space="preserve">fAHUPHPumpPressureADS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pressure</t>
   </si>
   <si>
     <t xml:space="preserve">bAHUPHPumpSetOnADS</t>
@@ -2162,7 +2198,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2173,6 +2209,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -2210,7 +2252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2223,6 +2265,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2232,6 +2278,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2240,10 +2346,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F761"/>
+  <dimension ref="A1:G761"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A306" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H326" activeCellId="0" sqref="H326"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A204" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A340" activeCellId="0" sqref="A340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2253,6 +2359,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,7 +4618,7 @@
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
+      <c r="A228" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B228" s="0" t="s">
@@ -4523,10 +4630,13 @@
       <c r="F228" s="0" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
+      <c r="G228" s="0" t="s">
         <v>217</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="3" t="s">
+        <v>218</v>
       </c>
       <c r="B229" s="0" t="s">
         <v>23</v>
@@ -4535,12 +4645,15 @@
         <v>19</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G229" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B230" s="0" t="s">
         <v>3</v>
@@ -4549,12 +4662,12 @@
         <v>19</v>
       </c>
       <c r="E230" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>221</v>
+      <c r="A231" s="3" t="s">
+        <v>222</v>
       </c>
       <c r="B231" s="0" t="s">
         <v>3</v>
@@ -4563,15 +4676,18 @@
         <v>19</v>
       </c>
       <c r="D231" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F231" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="G231" s="0" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>223</v>
+      <c r="A232" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="B232" s="0" t="s">
         <v>23</v>
@@ -4580,12 +4696,15 @@
         <v>19</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G232" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B233" s="0" t="s">
         <v>3</v>
@@ -4594,12 +4713,12 @@
         <v>19</v>
       </c>
       <c r="E233" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>225</v>
+      <c r="A234" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="B234" s="0" t="s">
         <v>3</v>
@@ -4610,10 +4729,13 @@
       <c r="F234" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="G234" s="0" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>226</v>
+      <c r="A235" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="B235" s="0" t="s">
         <v>23</v>
@@ -4622,15 +4744,18 @@
         <v>19</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F235" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G235" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B236" s="0" t="s">
         <v>3</v>
@@ -4639,12 +4764,12 @@
         <v>19</v>
       </c>
       <c r="E236" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>229</v>
+      <c r="A237" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="B237" s="0" t="s">
         <v>3</v>
@@ -4655,10 +4780,13 @@
       <c r="F237" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="G237" s="0" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>230</v>
+      <c r="A238" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="B238" s="0" t="s">
         <v>23</v>
@@ -4667,15 +4795,18 @@
         <v>19</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F238" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G238" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B239" s="0" t="s">
         <v>3</v>
@@ -4684,17 +4815,17 @@
         <v>19</v>
       </c>
       <c r="E239" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B241" s="0" t="s">
         <v>3</v>
@@ -4705,10 +4836,13 @@
       <c r="F241" s="0" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="242" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G241" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B242" s="0" t="s">
         <v>23</v>
@@ -4717,12 +4851,15 @@
         <v>19</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G242" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B243" s="0" t="s">
         <v>3</v>
@@ -4731,12 +4868,12 @@
         <v>19</v>
       </c>
       <c r="E243" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B244" s="0" t="s">
         <v>3</v>
@@ -4745,12 +4882,15 @@
         <v>19</v>
       </c>
       <c r="F244" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G244" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B245" s="0" t="s">
         <v>3</v>
@@ -4759,12 +4899,15 @@
         <v>19</v>
       </c>
       <c r="F245" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G245" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B246" s="0" t="s">
         <v>3</v>
@@ -4773,15 +4916,18 @@
         <v>19</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F246" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="G246" s="0" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="247" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B247" s="0" t="s">
         <v>23</v>
@@ -4790,12 +4936,15 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G247" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B248" s="0" t="s">
         <v>3</v>
@@ -4804,12 +4953,12 @@
         <v>19</v>
       </c>
       <c r="E248" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B249" s="0" t="s">
         <v>3</v>
@@ -4818,12 +4967,15 @@
         <v>19</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G249" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B250" s="0" t="s">
         <v>3</v>
@@ -4832,7 +4984,10 @@
         <v>19</v>
       </c>
       <c r="F250" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G250" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,7 +4997,7 @@
     </row>
     <row r="252" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B252" s="0" t="s">
         <v>3</v>
@@ -4851,9 +5006,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>246</v>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="B253" s="0" t="s">
         <v>3</v>
@@ -4862,12 +5017,15 @@
         <v>19</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G253" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>247</v>
+      <c r="A254" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="B254" s="0" t="s">
         <v>3</v>
@@ -4876,12 +5034,15 @@
         <v>19</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G254" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>248</v>
+      <c r="A255" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="B255" s="0" t="s">
         <v>3</v>
@@ -4890,12 +5051,15 @@
         <v>19</v>
       </c>
       <c r="F255" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G255" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>249</v>
+      <c r="A256" s="3" t="s">
+        <v>254</v>
       </c>
       <c r="B256" s="0" t="s">
         <v>3</v>
@@ -4904,17 +5068,20 @@
         <v>19</v>
       </c>
       <c r="F256" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G256" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>251</v>
+      <c r="A258" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B258" s="0" t="s">
         <v>3</v>
@@ -4923,12 +5090,15 @@
         <v>19</v>
       </c>
       <c r="F258" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G258" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>252</v>
+      <c r="A259" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="B259" s="0" t="s">
         <v>3</v>
@@ -4937,12 +5107,15 @@
         <v>19</v>
       </c>
       <c r="F259" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G259" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>253</v>
+      <c r="A260" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="B260" s="0" t="s">
         <v>3</v>
@@ -4951,12 +5124,15 @@
         <v>19</v>
       </c>
       <c r="F260" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G260" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>254</v>
+      <c r="A261" s="3" t="s">
+        <v>260</v>
       </c>
       <c r="B261" s="0" t="s">
         <v>3</v>
@@ -4965,17 +5141,20 @@
         <v>19</v>
       </c>
       <c r="F261" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G261" s="0" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="2" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B263" s="0" t="s">
         <v>3</v>
@@ -4984,15 +5163,18 @@
         <v>42</v>
       </c>
       <c r="D263" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="G263" s="0" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,9 +5182,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B266" s="0" t="s">
         <v>3</v>
@@ -5011,12 +5193,15 @@
         <v>19</v>
       </c>
       <c r="F266" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G266" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B267" s="0" t="s">
         <v>3</v>
@@ -5025,12 +5210,15 @@
         <v>19</v>
       </c>
       <c r="F267" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>261</v>
+        <v>239</v>
+      </c>
+      <c r="G267" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="B268" s="0" t="s">
         <v>3</v>
@@ -5039,12 +5227,15 @@
         <v>19</v>
       </c>
       <c r="F268" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>262</v>
+        <v>239</v>
+      </c>
+      <c r="G268" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="B269" s="0" t="s">
         <v>3</v>
@@ -5053,7 +5244,10 @@
         <v>19</v>
       </c>
       <c r="F269" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G269" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5061,9 +5255,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>263</v>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="B271" s="0" t="s">
         <v>3</v>
@@ -5072,18 +5266,21 @@
         <v>19</v>
       </c>
       <c r="D271" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E271" s="0" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="F271" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>265</v>
+        <v>239</v>
+      </c>
+      <c r="G271" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="B272" s="0" t="s">
         <v>23</v>
@@ -5092,18 +5289,21 @@
         <v>19</v>
       </c>
       <c r="D272" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E272" s="0" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="F272" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G272" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B273" s="0" t="s">
         <v>3</v>
@@ -5112,7 +5312,7 @@
         <v>19</v>
       </c>
       <c r="E273" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5122,7 +5322,7 @@
     </row>
     <row r="275" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B275" s="0" t="s">
         <v>23</v>
@@ -5131,15 +5331,18 @@
         <v>38</v>
       </c>
       <c r="D275" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F275" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="G275" s="0" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B276" s="0" t="s">
         <v>3</v>
@@ -5148,12 +5351,12 @@
         <v>38</v>
       </c>
       <c r="E276" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B277" s="0" t="s">
         <v>3</v>
@@ -5162,12 +5365,15 @@
         <v>42</v>
       </c>
       <c r="F277" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="G277" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B278" s="0" t="s">
         <v>3</v>
@@ -5176,12 +5382,15 @@
         <v>19</v>
       </c>
       <c r="F278" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G278" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B279" s="0" t="s">
         <v>3</v>
@@ -5190,12 +5399,15 @@
         <v>19</v>
       </c>
       <c r="F279" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G279" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="B280" s="0" t="s">
         <v>3</v>
@@ -5204,12 +5416,15 @@
         <v>19</v>
       </c>
       <c r="F280" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G280" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B281" s="0" t="s">
         <v>3</v>
@@ -5218,12 +5433,15 @@
         <v>42</v>
       </c>
       <c r="F281" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="282" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+      <c r="G281" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="B282" s="0" t="s">
         <v>23</v>
@@ -5232,12 +5450,15 @@
         <v>19</v>
       </c>
       <c r="F282" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G282" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B283" s="0" t="s">
         <v>3</v>
@@ -5246,12 +5467,12 @@
         <v>19</v>
       </c>
       <c r="E283" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B284" s="0" t="s">
         <v>3</v>
@@ -5260,12 +5481,15 @@
         <v>19</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G284" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B285" s="0" t="s">
         <v>3</v>
@@ -5274,17 +5498,20 @@
         <v>19</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G285" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B287" s="0" t="s">
         <v>3</v>
@@ -5295,10 +5522,13 @@
       <c r="F287" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="G287" s="0" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B288" s="0" t="s">
         <v>3</v>
@@ -5309,10 +5539,13 @@
       <c r="F288" s="0" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="289" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G288" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B289" s="0" t="s">
         <v>23</v>
@@ -5321,12 +5554,15 @@
         <v>19</v>
       </c>
       <c r="F289" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G289" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B290" s="0" t="s">
         <v>3</v>
@@ -5335,12 +5571,12 @@
         <v>19</v>
       </c>
       <c r="E290" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B291" s="0" t="s">
         <v>3</v>
@@ -5349,12 +5585,15 @@
         <v>19</v>
       </c>
       <c r="F291" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G291" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="2" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,9 +5601,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B294" s="0" t="s">
         <v>3</v>
@@ -5373,12 +5612,15 @@
         <v>19</v>
       </c>
       <c r="F294" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="295" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="G294" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B295" s="0" t="s">
         <v>3</v>
@@ -5387,12 +5629,15 @@
         <v>19</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="0" t="s">
-        <v>288</v>
+        <v>239</v>
+      </c>
+      <c r="G295" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="3" t="s">
+        <v>300</v>
       </c>
       <c r="B296" s="0" t="s">
         <v>3</v>
@@ -5401,12 +5646,15 @@
         <v>19</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="297" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="0" t="s">
-        <v>289</v>
+        <v>239</v>
+      </c>
+      <c r="G296" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="3" t="s">
+        <v>301</v>
       </c>
       <c r="B297" s="0" t="s">
         <v>3</v>
@@ -5415,40 +5663,46 @@
         <v>19</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="298" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="G297" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="C298" s="0" t="s">
         <v>19</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G298" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="C299" s="0" t="s">
         <v>19</v>
       </c>
       <c r="E299" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B300" s="0" t="s">
         <v>3</v>
@@ -5458,6 +5712,9 @@
       </c>
       <c r="F300" s="0" t="s">
         <v>216</v>
+      </c>
+      <c r="G300" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5465,9 +5722,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="0" t="s">
-        <v>295</v>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="3" t="s">
+        <v>307</v>
       </c>
       <c r="B302" s="0" t="s">
         <v>3</v>
@@ -5476,12 +5733,15 @@
         <v>19</v>
       </c>
       <c r="F302" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="303" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="0" t="s">
-        <v>296</v>
+        <v>239</v>
+      </c>
+      <c r="G302" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B303" s="0" t="s">
         <v>23</v>
@@ -5490,12 +5750,15 @@
         <v>19</v>
       </c>
       <c r="F303" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G303" s="0" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="0" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B304" s="0" t="s">
         <v>3</v>
@@ -5504,7 +5767,7 @@
         <v>19</v>
       </c>
       <c r="E304" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5514,7 +5777,7 @@
     </row>
     <row r="306" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="0" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B306" s="0" t="s">
         <v>23</v>
@@ -5525,10 +5788,13 @@
       <c r="F306" s="0" t="s">
         <v>216</v>
       </c>
+      <c r="G306" s="0" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="0" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B307" s="0" t="s">
         <v>3</v>
@@ -5537,12 +5803,12 @@
         <v>38</v>
       </c>
       <c r="E307" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="0" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B308" s="0" t="s">
         <v>3</v>
@@ -5551,12 +5817,15 @@
         <v>42</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>257</v>
+        <v>263</v>
+      </c>
+      <c r="G308" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="0" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B309" s="0" t="s">
         <v>3</v>
@@ -5565,12 +5834,15 @@
         <v>42</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G309" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="0" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B310" s="0" t="s">
         <v>3</v>
@@ -5579,12 +5851,15 @@
         <v>19</v>
       </c>
       <c r="F310" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G310" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="0" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="B311" s="0" t="s">
         <v>3</v>
@@ -5593,12 +5868,15 @@
         <v>19</v>
       </c>
       <c r="F311" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G311" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="0" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B312" s="0" t="s">
         <v>3</v>
@@ -5607,15 +5885,18 @@
         <v>42</v>
       </c>
       <c r="D312" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F312" s="0" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+      <c r="G312" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="0" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B313" s="0" t="s">
         <v>23</v>
@@ -5624,12 +5905,15 @@
         <v>19</v>
       </c>
       <c r="F313" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="G313" s="0" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="0" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B314" s="0" t="s">
         <v>3</v>
@@ -5638,12 +5922,12 @@
         <v>19</v>
       </c>
       <c r="E314" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="0" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B315" s="0" t="s">
         <v>3</v>
@@ -5652,12 +5936,15 @@
         <v>19</v>
       </c>
       <c r="F315" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G315" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="0" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B316" s="0" t="s">
         <v>3</v>
@@ -5666,15 +5953,18 @@
         <v>19</v>
       </c>
       <c r="D316" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F316" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G316" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="2" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,9 +5972,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="0" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B319" s="0" t="s">
         <v>3</v>
@@ -5693,12 +5983,15 @@
         <v>19</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="G319" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="0" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B320" s="0" t="s">
         <v>3</v>
@@ -5707,12 +6000,15 @@
         <v>19</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="G320" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="0" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B321" s="0" t="s">
         <v>3</v>
@@ -5721,12 +6017,15 @@
         <v>19</v>
       </c>
       <c r="F321" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+      <c r="G321" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="0" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B322" s="0" t="s">
         <v>3</v>
@@ -5735,7 +6034,10 @@
         <v>19</v>
       </c>
       <c r="F322" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
+      </c>
+      <c r="G322" s="0" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5743,9 +6045,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="0" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B324" s="0" t="s">
         <v>3</v>
@@ -5753,10 +6055,13 @@
       <c r="C324" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G324" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="0" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B325" s="0" t="s">
         <v>23</v>
@@ -5764,10 +6069,13 @@
       <c r="C325" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G325" s="0" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="0" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B326" s="0" t="s">
         <v>3</v>
@@ -5783,7 +6091,7 @@
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B328" s="0" t="s">
         <v>23</v>
@@ -5791,10 +6099,13 @@
       <c r="C328" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="G328" s="0" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B329" s="0" t="s">
         <v>3</v>
@@ -5805,7 +6116,7 @@
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B330" s="0" t="s">
         <v>3</v>
@@ -5813,10 +6124,13 @@
       <c r="C330" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="G330" s="0" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B331" s="0" t="s">
         <v>3</v>
@@ -5824,32 +6138,41 @@
       <c r="C331" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="G331" s="0" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B332" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C332" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="G332" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B333" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C333" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="G333" s="0" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B334" s="0" t="s">
         <v>3</v>
@@ -5857,10 +6180,13 @@
       <c r="C334" s="0" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G334" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B335" s="0" t="s">
         <v>23</v>
@@ -5868,10 +6194,13 @@
       <c r="C335" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="G335" s="0" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B336" s="0" t="s">
         <v>3</v>
@@ -5882,34 +6211,40 @@
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B337" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C337" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="G337" s="0" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B338" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C338" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="G338" s="0" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="2" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B340" s="0" t="s">
         <v>23</v>
@@ -5918,12 +6253,15 @@
         <v>19</v>
       </c>
       <c r="D340" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
+      </c>
+      <c r="G340" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="B341" s="0" t="s">
         <v>3</v>
@@ -5934,17 +6272,17 @@
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B345" s="0" t="s">
         <v>23</v>
@@ -5955,7 +6293,7 @@
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B346" s="0" t="s">
         <v>23</v>
@@ -5966,7 +6304,7 @@
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="B347" s="0" t="s">
         <v>3</v>
@@ -5977,7 +6315,7 @@
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B348" s="0" t="s">
         <v>3</v>
@@ -5988,17 +6326,17 @@
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B352" s="0" t="s">
         <v>3</v>
@@ -6009,7 +6347,7 @@
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B353" s="0" t="s">
         <v>23</v>
@@ -6020,7 +6358,7 @@
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B354" s="0" t="s">
         <v>23</v>
@@ -6031,7 +6369,7 @@
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B355" s="0" t="s">
         <v>3</v>
@@ -6042,7 +6380,7 @@
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="B356" s="0" t="s">
         <v>3</v>
@@ -6053,23 +6391,23 @@
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="B360" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C360" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="D360" s="0" t="s">
         <v>5</v>
@@ -6077,21 +6415,21 @@
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B361" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C361" s="0" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="D361" s="0" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B362" s="0" t="s">
         <v>23</v>
@@ -6102,24 +6440,24 @@
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="B363" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C363" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B364" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C364" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="D364" s="0" t="s">
         <v>5</v>
@@ -6127,22 +6465,22 @@
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B369" s="0" t="s">
         <v>3</v>
@@ -6163,7 +6501,7 @@
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="B373" s="0" t="s">
         <v>3</v>
@@ -6177,7 +6515,7 @@
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B374" s="0" t="s">
         <v>3</v>
@@ -6193,7 +6531,7 @@
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B376" s="0" t="s">
         <v>3</v>
@@ -6204,7 +6542,7 @@
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="B377" s="0" t="s">
         <v>3</v>
@@ -6213,28 +6551,28 @@
         <v>19</v>
       </c>
       <c r="E377" s="0" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B380" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C380" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>3</v>
@@ -6245,7 +6583,7 @@
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="B382" s="0" t="s">
         <v>3</v>
@@ -6256,7 +6594,7 @@
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B383" s="0" t="s">
         <v>3</v>
@@ -6267,7 +6605,7 @@
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B384" s="0" t="s">
         <v>3</v>
@@ -6278,18 +6616,18 @@
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C385" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B386" s="0" t="s">
         <v>3</v>
@@ -6300,7 +6638,7 @@
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B387" s="0" t="s">
         <v>3</v>
@@ -6321,7 +6659,7 @@
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>3</v>
@@ -6332,7 +6670,7 @@
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B392" s="0" t="s">
         <v>3</v>
@@ -6343,7 +6681,7 @@
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="B393" s="0" t="s">
         <v>3</v>
@@ -6354,7 +6692,7 @@
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B394" s="0" t="s">
         <v>3</v>
@@ -6365,7 +6703,7 @@
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B395" s="0" t="s">
         <v>3</v>
@@ -6381,7 +6719,7 @@
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B397" s="0" t="s">
         <v>3</v>
@@ -6392,7 +6730,7 @@
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B398" s="0" t="s">
         <v>3</v>
@@ -6403,7 +6741,7 @@
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B399" s="0" t="s">
         <v>3</v>
@@ -6419,7 +6757,7 @@
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B401" s="0" t="s">
         <v>3</v>
@@ -6430,7 +6768,7 @@
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B402" s="0" t="s">
         <v>3</v>
@@ -6441,7 +6779,7 @@
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="B403" s="0" t="s">
         <v>3</v>
@@ -6452,7 +6790,7 @@
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B404" s="0" t="s">
         <v>3</v>
@@ -6463,7 +6801,7 @@
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="B405" s="0" t="s">
         <v>3</v>
@@ -6474,7 +6812,7 @@
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B406" s="0" t="s">
         <v>3</v>
@@ -6485,7 +6823,7 @@
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="B407" s="0" t="s">
         <v>3</v>
@@ -6496,7 +6834,7 @@
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B408" s="0" t="s">
         <v>3</v>
@@ -6507,7 +6845,7 @@
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B409" s="0" t="s">
         <v>3</v>
@@ -6528,7 +6866,7 @@
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B413" s="0" t="s">
         <v>3</v>
@@ -6539,7 +6877,7 @@
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B414" s="0" t="s">
         <v>3</v>
@@ -6550,7 +6888,7 @@
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B415" s="0" t="s">
         <v>3</v>
@@ -6561,7 +6899,7 @@
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B416" s="0" t="s">
         <v>3</v>
@@ -6572,7 +6910,7 @@
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B417" s="0" t="s">
         <v>3</v>
@@ -6588,7 +6926,7 @@
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B419" s="0" t="s">
         <v>3</v>
@@ -6599,7 +6937,7 @@
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B420" s="0" t="s">
         <v>3</v>
@@ -6610,7 +6948,7 @@
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B421" s="0" t="s">
         <v>3</v>
@@ -6621,7 +6959,7 @@
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="B422" s="0" t="s">
         <v>3</v>
@@ -6632,7 +6970,7 @@
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="B423" s="0" t="s">
         <v>3</v>
@@ -6643,7 +6981,7 @@
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B424" s="0" t="s">
         <v>3</v>
@@ -6659,7 +6997,7 @@
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B426" s="0" t="s">
         <v>3</v>
@@ -6670,7 +7008,7 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B427" s="0" t="s">
         <v>3</v>
@@ -6681,7 +7019,7 @@
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B428" s="0" t="s">
         <v>3</v>
@@ -6692,7 +7030,7 @@
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B429" s="0" t="s">
         <v>3</v>
@@ -6703,7 +7041,7 @@
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B430" s="0" t="s">
         <v>3</v>
@@ -6714,7 +7052,7 @@
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B431" s="0" t="s">
         <v>3</v>
@@ -6725,7 +7063,7 @@
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B432" s="0" t="s">
         <v>3</v>
@@ -6736,7 +7074,7 @@
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B433" s="0" t="s">
         <v>3</v>
@@ -6747,7 +7085,7 @@
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="B434" s="0" t="s">
         <v>3</v>
@@ -6768,7 +7106,7 @@
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="B438" s="0" t="s">
         <v>3</v>
@@ -6779,7 +7117,7 @@
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="B439" s="0" t="s">
         <v>3</v>
@@ -6790,7 +7128,7 @@
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B440" s="0" t="s">
         <v>3</v>
@@ -6801,7 +7139,7 @@
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="B441" s="0" t="s">
         <v>3</v>
@@ -6812,7 +7150,7 @@
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="B442" s="0" t="s">
         <v>3</v>
@@ -6828,7 +7166,7 @@
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="B444" s="0" t="s">
         <v>3</v>
@@ -6839,7 +7177,7 @@
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B445" s="0" t="s">
         <v>3</v>
@@ -6850,7 +7188,7 @@
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="B446" s="0" t="s">
         <v>3</v>
@@ -6866,7 +7204,7 @@
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="B448" s="0" t="s">
         <v>3</v>
@@ -6877,7 +7215,7 @@
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="B449" s="0" t="s">
         <v>3</v>
@@ -6888,7 +7226,7 @@
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="B450" s="0" t="s">
         <v>3</v>
@@ -6899,7 +7237,7 @@
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B451" s="0" t="s">
         <v>3</v>
@@ -6910,7 +7248,7 @@
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="B452" s="0" t="s">
         <v>3</v>
@@ -6921,7 +7259,7 @@
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="B453" s="0" t="s">
         <v>3</v>
@@ -6932,7 +7270,7 @@
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="B454" s="0" t="s">
         <v>3</v>
@@ -6943,7 +7281,7 @@
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B455" s="0" t="s">
         <v>3</v>
@@ -6954,7 +7292,7 @@
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="B456" s="0" t="s">
         <v>3</v>
@@ -6975,7 +7313,7 @@
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="B460" s="0" t="s">
         <v>3</v>
@@ -6986,7 +7324,7 @@
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="B461" s="0" t="s">
         <v>3</v>
@@ -6997,7 +7335,7 @@
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="B462" s="0" t="s">
         <v>3</v>
@@ -7008,7 +7346,7 @@
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="B463" s="0" t="s">
         <v>3</v>
@@ -7019,7 +7357,7 @@
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="B464" s="0" t="s">
         <v>3</v>
@@ -7035,7 +7373,7 @@
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="B466" s="0" t="s">
         <v>3</v>
@@ -7046,7 +7384,7 @@
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="B467" s="0" t="s">
         <v>3</v>
@@ -7057,7 +7395,7 @@
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="B468" s="0" t="s">
         <v>3</v>
@@ -7073,7 +7411,7 @@
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="B470" s="0" t="s">
         <v>3</v>
@@ -7084,7 +7422,7 @@
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="B471" s="0" t="s">
         <v>3</v>
@@ -7095,7 +7433,7 @@
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="B472" s="0" t="s">
         <v>3</v>
@@ -7106,7 +7444,7 @@
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="B473" s="0" t="s">
         <v>3</v>
@@ -7117,7 +7455,7 @@
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B474" s="0" t="s">
         <v>3</v>
@@ -7128,7 +7466,7 @@
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="B475" s="0" t="s">
         <v>3</v>
@@ -7139,7 +7477,7 @@
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="B476" s="0" t="s">
         <v>3</v>
@@ -7150,7 +7488,7 @@
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B477" s="0" t="s">
         <v>3</v>
@@ -7161,7 +7499,7 @@
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B478" s="0" t="s">
         <v>3</v>
@@ -7172,7 +7510,7 @@
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7182,7 +7520,7 @@
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="B482" s="0" t="s">
         <v>3</v>
@@ -7193,7 +7531,7 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B483" s="0" t="s">
         <v>3</v>
@@ -7204,7 +7542,7 @@
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B484" s="0" t="s">
         <v>3</v>
@@ -7215,7 +7553,7 @@
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="B485" s="0" t="s">
         <v>3</v>
@@ -7226,7 +7564,7 @@
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="B486" s="0" t="s">
         <v>3</v>
@@ -7237,12 +7575,12 @@
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="B488" s="0" t="s">
         <v>3</v>
@@ -7253,7 +7591,7 @@
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="B489" s="0" t="s">
         <v>3</v>
@@ -7264,7 +7602,7 @@
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="B490" s="0" t="s">
         <v>3</v>
@@ -7275,12 +7613,12 @@
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="B492" s="0" t="s">
         <v>3</v>
@@ -7291,7 +7629,7 @@
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="B493" s="0" t="s">
         <v>3</v>
@@ -7302,7 +7640,7 @@
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="B494" s="0" t="s">
         <v>3</v>
@@ -7318,7 +7656,7 @@
     </row>
     <row r="496" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="B496" s="0" t="s">
         <v>3</v>
@@ -7329,7 +7667,7 @@
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="B497" s="0" t="s">
         <v>3</v>
@@ -7340,7 +7678,7 @@
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="B498" s="0" t="s">
         <v>3</v>
@@ -7351,7 +7689,7 @@
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="B499" s="0" t="s">
         <v>3</v>
@@ -7362,7 +7700,7 @@
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="B500" s="0" t="s">
         <v>3</v>
@@ -7373,7 +7711,7 @@
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="B501" s="0" t="s">
         <v>3</v>
@@ -7389,7 +7727,7 @@
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="B503" s="0" t="s">
         <v>3</v>
@@ -7400,7 +7738,7 @@
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="B504" s="0" t="s">
         <v>3</v>
@@ -7411,7 +7749,7 @@
     </row>
     <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="B505" s="0" t="s">
         <v>3</v>
@@ -7422,7 +7760,7 @@
     </row>
     <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="B506" s="0" t="s">
         <v>3</v>
@@ -7433,7 +7771,7 @@
     </row>
     <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="B507" s="0" t="s">
         <v>3</v>
@@ -7444,7 +7782,7 @@
     </row>
     <row r="508" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="B508" s="0" t="s">
         <v>3</v>
@@ -7455,7 +7793,7 @@
     </row>
     <row r="509" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="B509" s="0" t="s">
         <v>3</v>
@@ -7466,7 +7804,7 @@
     </row>
     <row r="510" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="B510" s="0" t="s">
         <v>3</v>
@@ -7477,7 +7815,7 @@
     </row>
     <row r="511" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="B511" s="0" t="s">
         <v>3</v>
@@ -7498,7 +7836,7 @@
     </row>
     <row r="515" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="B515" s="0" t="s">
         <v>3</v>
@@ -7509,7 +7847,7 @@
     </row>
     <row r="516" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="B516" s="0" t="s">
         <v>3</v>
@@ -7523,7 +7861,7 @@
     </row>
     <row r="517" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="B517" s="0" t="s">
         <v>3</v>
@@ -7534,7 +7872,7 @@
     </row>
     <row r="518" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="B518" s="0" t="s">
         <v>3</v>
@@ -7548,7 +7886,7 @@
     </row>
     <row r="519" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="B519" s="0" t="s">
         <v>3</v>
@@ -7559,7 +7897,7 @@
     </row>
     <row r="520" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="B520" s="0" t="s">
         <v>3</v>
@@ -7570,7 +7908,7 @@
     </row>
     <row r="521" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="B521" s="0" t="s">
         <v>3</v>
@@ -7581,7 +7919,7 @@
     </row>
     <row r="522" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="B522" s="0" t="s">
         <v>3</v>
@@ -7592,7 +7930,7 @@
     </row>
     <row r="523" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B523" s="0" t="s">
         <v>3</v>
@@ -7603,7 +7941,7 @@
     </row>
     <row r="524" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="B524" s="0" t="s">
         <v>3</v>
@@ -7614,7 +7952,7 @@
     </row>
     <row r="525" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="B525" s="0" t="s">
         <v>3</v>
@@ -7625,7 +7963,7 @@
     </row>
     <row r="526" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="B526" s="0" t="s">
         <v>3</v>
@@ -7639,7 +7977,7 @@
     </row>
     <row r="527" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="B527" s="0" t="s">
         <v>3</v>
@@ -7650,7 +7988,7 @@
     </row>
     <row r="528" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="B528" s="0" t="s">
         <v>3</v>
@@ -7664,7 +8002,7 @@
     </row>
     <row r="529" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B529" s="0" t="s">
         <v>3</v>
@@ -7675,7 +8013,7 @@
     </row>
     <row r="530" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="B530" s="0" t="s">
         <v>3</v>
@@ -7686,7 +8024,7 @@
     </row>
     <row r="531" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="B531" s="0" t="s">
         <v>3</v>
@@ -7697,7 +8035,7 @@
     </row>
     <row r="532" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="B532" s="0" t="s">
         <v>3</v>
@@ -7708,7 +8046,7 @@
     </row>
     <row r="533" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="B533" s="0" t="s">
         <v>3</v>
@@ -7719,7 +8057,7 @@
     </row>
     <row r="534" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="B534" s="0" t="s">
         <v>3</v>
@@ -7735,7 +8073,7 @@
     </row>
     <row r="536" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="B536" s="0" t="s">
         <v>3</v>
@@ -7746,18 +8084,18 @@
     </row>
     <row r="537" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="B537" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C537" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="B538" s="0" t="s">
         <v>3</v>
@@ -7768,7 +8106,7 @@
     </row>
     <row r="539" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="B539" s="0" t="s">
         <v>3</v>
@@ -7782,7 +8120,7 @@
     </row>
     <row r="540" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="B540" s="0" t="s">
         <v>3</v>
@@ -7793,7 +8131,7 @@
     </row>
     <row r="541" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="B541" s="0" t="s">
         <v>3</v>
@@ -7807,7 +8145,7 @@
     </row>
     <row r="542" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B542" s="0" t="s">
         <v>3</v>
@@ -7818,7 +8156,7 @@
     </row>
     <row r="543" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="B543" s="0" t="s">
         <v>3</v>
@@ -7829,7 +8167,7 @@
     </row>
     <row r="544" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="B544" s="0" t="s">
         <v>3</v>
@@ -7840,7 +8178,7 @@
     </row>
     <row r="545" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="B545" s="0" t="s">
         <v>3</v>
@@ -7851,7 +8189,7 @@
     </row>
     <row r="546" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="B546" s="0" t="s">
         <v>3</v>
@@ -7862,7 +8200,7 @@
     </row>
     <row r="547" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="B547" s="0" t="s">
         <v>3</v>
@@ -7873,7 +8211,7 @@
     </row>
     <row r="548" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="B548" s="0" t="s">
         <v>3</v>
@@ -7884,7 +8222,7 @@
     </row>
     <row r="549" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B549" s="0" t="s">
         <v>3</v>
@@ -7898,7 +8236,7 @@
     </row>
     <row r="550" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="B550" s="0" t="s">
         <v>3</v>
@@ -7909,7 +8247,7 @@
     </row>
     <row r="551" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B551" s="0" t="s">
         <v>3</v>
@@ -7923,7 +8261,7 @@
     </row>
     <row r="552" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="B552" s="0" t="s">
         <v>3</v>
@@ -7934,7 +8272,7 @@
     </row>
     <row r="553" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B553" s="0" t="s">
         <v>3</v>
@@ -7945,7 +8283,7 @@
     </row>
     <row r="554" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="B554" s="0" t="s">
         <v>3</v>
@@ -7956,7 +8294,7 @@
     </row>
     <row r="555" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B555" s="0" t="s">
         <v>3</v>
@@ -7967,7 +8305,7 @@
     </row>
     <row r="556" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="B556" s="0" t="s">
         <v>3</v>
@@ -7978,7 +8316,7 @@
     </row>
     <row r="557" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B557" s="0" t="s">
         <v>3</v>
@@ -7999,7 +8337,7 @@
     </row>
     <row r="561" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="B561" s="0" t="s">
         <v>164</v>
@@ -8010,7 +8348,7 @@
     </row>
     <row r="562" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B562" s="0" t="s">
         <v>164</v>
@@ -8021,7 +8359,7 @@
     </row>
     <row r="563" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="B563" s="0" t="s">
         <v>164</v>
@@ -8032,7 +8370,7 @@
     </row>
     <row r="564" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B564" s="0" t="s">
         <v>164</v>
@@ -8043,16 +8381,16 @@
     </row>
     <row r="565" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="B565" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C565" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="E565" s="0" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8067,7 +8405,7 @@
     </row>
     <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="B569" s="0" t="s">
         <v>164</v>
@@ -8078,7 +8416,7 @@
     </row>
     <row r="570" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B570" s="0" t="s">
         <v>164</v>
@@ -8089,7 +8427,7 @@
     </row>
     <row r="571" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="B571" s="0" t="s">
         <v>164</v>
@@ -8100,7 +8438,7 @@
     </row>
     <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B572" s="0" t="s">
         <v>164</v>
@@ -8111,7 +8449,7 @@
     </row>
     <row r="573" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="B573" s="0" t="s">
         <v>164</v>
@@ -8122,7 +8460,7 @@
     </row>
     <row r="574" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B574" s="0" t="s">
         <v>164</v>
@@ -8133,7 +8471,7 @@
     </row>
     <row r="575" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="B575" s="0" t="s">
         <v>164</v>
@@ -8144,7 +8482,7 @@
     </row>
     <row r="576" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B576" s="0" t="s">
         <v>164</v>
@@ -8155,12 +8493,12 @@
     </row>
     <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="B578" s="0" t="s">
         <v>164</v>
@@ -8171,7 +8509,7 @@
     </row>
     <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B579" s="0" t="s">
         <v>164</v>
@@ -8182,7 +8520,7 @@
     </row>
     <row r="580" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="B580" s="0" t="s">
         <v>164</v>
@@ -8193,7 +8531,7 @@
     </row>
     <row r="581" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="B581" s="0" t="s">
         <v>164</v>
@@ -8204,7 +8542,7 @@
     </row>
     <row r="582" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="B582" s="0" t="s">
         <v>164</v>
@@ -8215,7 +8553,7 @@
     </row>
     <row r="583" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="B583" s="0" t="s">
         <v>164</v>
@@ -8226,7 +8564,7 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="B584" s="0" t="s">
         <v>164</v>
@@ -8237,7 +8575,7 @@
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="B585" s="0" t="s">
         <v>164</v>
@@ -8253,7 +8591,7 @@
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="B587" s="0" t="s">
         <v>164</v>
@@ -8264,7 +8602,7 @@
     </row>
     <row r="588" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="B588" s="0" t="s">
         <v>164</v>
@@ -8275,7 +8613,7 @@
     </row>
     <row r="589" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="B589" s="0" t="s">
         <v>164</v>
@@ -8286,7 +8624,7 @@
     </row>
     <row r="590" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="B590" s="0" t="s">
         <v>164</v>
@@ -8297,7 +8635,7 @@
     </row>
     <row r="591" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="B591" s="0" t="s">
         <v>164</v>
@@ -8308,7 +8646,7 @@
     </row>
     <row r="592" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="B592" s="0" t="s">
         <v>164</v>
@@ -8319,12 +8657,12 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="B594" s="0" t="s">
         <v>164</v>
@@ -8335,7 +8673,7 @@
     </row>
     <row r="595" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="B595" s="0" t="s">
         <v>164</v>
@@ -8346,7 +8684,7 @@
     </row>
     <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="B596" s="0" t="s">
         <v>164</v>
@@ -8357,7 +8695,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B597" s="0" t="s">
         <v>164</v>
@@ -8368,7 +8706,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B598" s="0" t="s">
         <v>164</v>
@@ -8379,12 +8717,12 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B600" s="0" t="s">
         <v>164</v>
@@ -8395,7 +8733,7 @@
     </row>
     <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8405,7 +8743,7 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="B603" s="0" t="s">
         <v>164</v>
@@ -8416,7 +8754,7 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
       <c r="B604" s="0" t="s">
         <v>164</v>
@@ -8427,7 +8765,7 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
       <c r="B605" s="0" t="s">
         <v>164</v>
@@ -8438,7 +8776,7 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="B606" s="0" t="s">
         <v>164</v>
@@ -8449,7 +8787,7 @@
     </row>
     <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="B607" s="0" t="s">
         <v>164</v>
@@ -8460,7 +8798,7 @@
     </row>
     <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="B608" s="0" t="s">
         <v>164</v>
@@ -8476,7 +8814,7 @@
     </row>
     <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="B610" s="0" t="s">
         <v>164</v>
@@ -8487,7 +8825,7 @@
     </row>
     <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
       <c r="B611" s="0" t="s">
         <v>164</v>
@@ -8498,7 +8836,7 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
       <c r="B612" s="0" t="s">
         <v>164</v>
@@ -8514,7 +8852,7 @@
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
       <c r="B614" s="0" t="s">
         <v>164</v>
@@ -8525,7 +8863,7 @@
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="B615" s="0" t="s">
         <v>164</v>
@@ -8536,7 +8874,7 @@
     </row>
     <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="B616" s="0" t="s">
         <v>164</v>
@@ -8547,7 +8885,7 @@
     </row>
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="B617" s="0" t="s">
         <v>164</v>
@@ -8558,7 +8896,7 @@
     </row>
     <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="B618" s="0" t="s">
         <v>164</v>
@@ -8569,7 +8907,7 @@
     </row>
     <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="B619" s="0" t="s">
         <v>164</v>
@@ -8580,7 +8918,7 @@
     </row>
     <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B620" s="0" t="s">
         <v>164</v>
@@ -8591,7 +8929,7 @@
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="B621" s="0" t="s">
         <v>164</v>
@@ -8602,7 +8940,7 @@
     </row>
     <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B622" s="0" t="s">
         <v>164</v>
@@ -8613,12 +8951,12 @@
     </row>
     <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="B624" s="0" t="s">
         <v>164</v>
@@ -8629,7 +8967,7 @@
     </row>
     <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B625" s="0" t="s">
         <v>164</v>
@@ -8640,7 +8978,7 @@
     </row>
     <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B626" s="0" t="s">
         <v>164</v>
@@ -8651,7 +8989,7 @@
     </row>
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B627" s="0" t="s">
         <v>164</v>
@@ -8662,7 +9000,7 @@
     </row>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8672,7 +9010,7 @@
     </row>
     <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B630" s="0" t="s">
         <v>164</v>
@@ -8683,7 +9021,7 @@
     </row>
     <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B631" s="0" t="s">
         <v>164</v>
@@ -8694,7 +9032,7 @@
     </row>
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B632" s="0" t="s">
         <v>164</v>
@@ -8705,7 +9043,7 @@
     </row>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="B633" s="0" t="s">
         <v>164</v>
@@ -8716,7 +9054,7 @@
     </row>
     <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B634" s="0" t="s">
         <v>164</v>
@@ -8727,7 +9065,7 @@
     </row>
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="B635" s="0" t="s">
         <v>164</v>
@@ -8743,7 +9081,7 @@
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="B637" s="0" t="s">
         <v>164</v>
@@ -8754,7 +9092,7 @@
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="B638" s="0" t="s">
         <v>164</v>
@@ -8765,7 +9103,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="B639" s="0" t="s">
         <v>164</v>
@@ -8781,7 +9119,7 @@
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="B641" s="0" t="s">
         <v>164</v>
@@ -8792,7 +9130,7 @@
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="B642" s="0" t="s">
         <v>164</v>
@@ -8803,7 +9141,7 @@
     </row>
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="B643" s="0" t="s">
         <v>164</v>
@@ -8814,7 +9152,7 @@
     </row>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="B644" s="0" t="s">
         <v>164</v>
@@ -8825,7 +9163,7 @@
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="B645" s="0" t="s">
         <v>164</v>
@@ -8836,7 +9174,7 @@
     </row>
     <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="B646" s="0" t="s">
         <v>164</v>
@@ -8847,7 +9185,7 @@
     </row>
     <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="B647" s="0" t="s">
         <v>164</v>
@@ -8858,7 +9196,7 @@
     </row>
     <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="B648" s="0" t="s">
         <v>164</v>
@@ -8869,7 +9207,7 @@
     </row>
     <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="B649" s="0" t="s">
         <v>164</v>
@@ -8880,7 +9218,7 @@
     </row>
     <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8890,7 +9228,7 @@
     </row>
     <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="B652" s="0" t="s">
         <v>164</v>
@@ -8901,7 +9239,7 @@
     </row>
     <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="B653" s="0" t="s">
         <v>164</v>
@@ -8912,7 +9250,7 @@
     </row>
     <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="B654" s="0" t="s">
         <v>164</v>
@@ -8923,7 +9261,7 @@
     </row>
     <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="B655" s="0" t="s">
         <v>164</v>
@@ -8934,7 +9272,7 @@
     </row>
     <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="B656" s="0" t="s">
         <v>164</v>
@@ -8950,7 +9288,7 @@
     </row>
     <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="B658" s="0" t="s">
         <v>164</v>
@@ -8961,7 +9299,7 @@
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="B659" s="0" t="s">
         <v>164</v>
@@ -8972,7 +9310,7 @@
     </row>
     <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="B660" s="0" t="s">
         <v>164</v>
@@ -8988,7 +9326,7 @@
     </row>
     <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="B662" s="0" t="s">
         <v>164</v>
@@ -8999,7 +9337,7 @@
     </row>
     <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="B663" s="0" t="s">
         <v>164</v>
@@ -9010,7 +9348,7 @@
     </row>
     <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="B664" s="0" t="s">
         <v>164</v>
@@ -9021,7 +9359,7 @@
     </row>
     <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="B665" s="0" t="s">
         <v>164</v>
@@ -9032,7 +9370,7 @@
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="0" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="B666" s="0" t="s">
         <v>164</v>
@@ -9043,7 +9381,7 @@
     </row>
     <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="B667" s="0" t="s">
         <v>164</v>
@@ -9054,7 +9392,7 @@
     </row>
     <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="B668" s="0" t="s">
         <v>164</v>
@@ -9065,7 +9403,7 @@
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="B669" s="0" t="s">
         <v>164</v>
@@ -9076,7 +9414,7 @@
     </row>
     <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="B670" s="0" t="s">
         <v>164</v>
@@ -9087,12 +9425,12 @@
     </row>
     <row r="671" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="B672" s="0" t="s">
         <v>164</v>
@@ -9103,17 +9441,17 @@
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="B676" s="0" t="s">
         <v>164</v>
@@ -9124,7 +9462,7 @@
     </row>
     <row r="677" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="B677" s="0" t="s">
         <v>164</v>
@@ -9135,17 +9473,17 @@
     </row>
     <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="B681" s="0" t="s">
         <v>164</v>
@@ -9156,7 +9494,7 @@
     </row>
     <row r="682" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="B682" s="0" t="s">
         <v>164</v>
@@ -9167,7 +9505,7 @@
     </row>
     <row r="683" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="B683" s="0" t="s">
         <v>164</v>
@@ -9178,23 +9516,23 @@
     </row>
     <row r="685" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="B686" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C686" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="B687" s="0" t="s">
         <v>164</v>
@@ -9205,7 +9543,7 @@
     </row>
     <row r="688" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="B688" s="0" t="s">
         <v>164</v>
@@ -9216,34 +9554,34 @@
     </row>
     <row r="689" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="B689" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C689" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="B690" s="0" t="s">
         <v>164</v>
       </c>
       <c r="C690" s="0" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="B693" s="0" t="s">
         <v>164</v>
@@ -9252,12 +9590,12 @@
         <v>19</v>
       </c>
       <c r="E693" s="0" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="B694" s="0" t="s">
         <v>164</v>
@@ -9266,12 +9604,12 @@
         <v>19</v>
       </c>
       <c r="E694" s="0" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="B695" s="0" t="s">
         <v>164</v>
@@ -9280,12 +9618,12 @@
         <v>19</v>
       </c>
       <c r="E695" s="0" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="B696" s="0" t="s">
         <v>164</v>
@@ -9294,17 +9632,17 @@
         <v>19</v>
       </c>
       <c r="E696" s="0" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="B698" s="0" t="s">
         <v>164</v>
@@ -9313,12 +9651,12 @@
         <v>19</v>
       </c>
       <c r="E698" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="B699" s="0" t="s">
         <v>164</v>
@@ -9327,12 +9665,12 @@
         <v>19</v>
       </c>
       <c r="E699" s="0" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="B700" s="0" t="s">
         <v>164</v>
@@ -9341,12 +9679,12 @@
         <v>19</v>
       </c>
       <c r="E700" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="B701" s="0" t="s">
         <v>164</v>
@@ -9355,12 +9693,12 @@
         <v>19</v>
       </c>
       <c r="E701" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="B702" s="0" t="s">
         <v>164</v>
@@ -9369,12 +9707,12 @@
         <v>19</v>
       </c>
       <c r="E702" s="0" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="B703" s="0" t="s">
         <v>164</v>
@@ -9383,12 +9721,12 @@
         <v>19</v>
       </c>
       <c r="E703" s="0" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="B704" s="0" t="s">
         <v>164</v>
@@ -9397,12 +9735,12 @@
         <v>19</v>
       </c>
       <c r="E704" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="B705" s="0" t="s">
         <v>164</v>
@@ -9411,12 +9749,12 @@
         <v>19</v>
       </c>
       <c r="E705" s="0" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="B706" s="0" t="s">
         <v>164</v>
@@ -9425,12 +9763,12 @@
         <v>19</v>
       </c>
       <c r="E706" s="0" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="B707" s="0" t="s">
         <v>164</v>
@@ -9439,12 +9777,12 @@
         <v>19</v>
       </c>
       <c r="E707" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="B708" s="0" t="s">
         <v>164</v>
@@ -9453,12 +9791,12 @@
         <v>19</v>
       </c>
       <c r="E708" s="0" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="B709" s="0" t="s">
         <v>164</v>
@@ -9467,17 +9805,17 @@
         <v>19</v>
       </c>
       <c r="E709" s="0" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="B711" s="0" t="s">
         <v>164</v>
@@ -9486,12 +9824,12 @@
         <v>19</v>
       </c>
       <c r="E711" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="B712" s="0" t="s">
         <v>164</v>
@@ -9500,12 +9838,12 @@
         <v>19</v>
       </c>
       <c r="E712" s="0" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="B713" s="0" t="s">
         <v>164</v>
@@ -9514,12 +9852,12 @@
         <v>19</v>
       </c>
       <c r="E713" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="B714" s="0" t="s">
         <v>164</v>
@@ -9528,12 +9866,12 @@
         <v>19</v>
       </c>
       <c r="E714" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="B715" s="0" t="s">
         <v>164</v>
@@ -9542,12 +9880,12 @@
         <v>19</v>
       </c>
       <c r="E715" s="0" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="B716" s="0" t="s">
         <v>164</v>
@@ -9556,12 +9894,12 @@
         <v>19</v>
       </c>
       <c r="E716" s="0" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="B717" s="0" t="s">
         <v>164</v>
@@ -9570,12 +9908,12 @@
         <v>19</v>
       </c>
       <c r="E717" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="B718" s="0" t="s">
         <v>164</v>
@@ -9584,12 +9922,12 @@
         <v>19</v>
       </c>
       <c r="E718" s="0" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="B719" s="0" t="s">
         <v>164</v>
@@ -9598,12 +9936,12 @@
         <v>19</v>
       </c>
       <c r="E719" s="0" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="B720" s="0" t="s">
         <v>164</v>
@@ -9612,12 +9950,12 @@
         <v>19</v>
       </c>
       <c r="E720" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
       <c r="B721" s="0" t="s">
         <v>164</v>
@@ -9626,12 +9964,12 @@
         <v>19</v>
       </c>
       <c r="E721" s="0" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="0" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
       <c r="B722" s="0" t="s">
         <v>164</v>
@@ -9640,17 +9978,17 @@
         <v>19</v>
       </c>
       <c r="E722" s="0" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>663</v>
+        <v>675</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>664</v>
+        <v>676</v>
       </c>
       <c r="B724" s="0" t="s">
         <v>164</v>
@@ -9659,12 +9997,12 @@
         <v>19</v>
       </c>
       <c r="E724" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>665</v>
+        <v>677</v>
       </c>
       <c r="B725" s="0" t="s">
         <v>164</v>
@@ -9673,12 +10011,12 @@
         <v>19</v>
       </c>
       <c r="E725" s="0" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
       <c r="B726" s="0" t="s">
         <v>164</v>
@@ -9687,12 +10025,12 @@
         <v>19</v>
       </c>
       <c r="E726" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="B727" s="0" t="s">
         <v>164</v>
@@ -9701,12 +10039,12 @@
         <v>19</v>
       </c>
       <c r="E727" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>668</v>
+        <v>680</v>
       </c>
       <c r="B728" s="0" t="s">
         <v>164</v>
@@ -9715,12 +10053,12 @@
         <v>19</v>
       </c>
       <c r="E728" s="0" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>669</v>
+        <v>681</v>
       </c>
       <c r="B729" s="0" t="s">
         <v>164</v>
@@ -9729,12 +10067,12 @@
         <v>19</v>
       </c>
       <c r="E729" s="0" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>670</v>
+        <v>682</v>
       </c>
       <c r="B730" s="0" t="s">
         <v>164</v>
@@ -9743,12 +10081,12 @@
         <v>19</v>
       </c>
       <c r="E730" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="B731" s="0" t="s">
         <v>164</v>
@@ -9757,12 +10095,12 @@
         <v>19</v>
       </c>
       <c r="E731" s="0" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>672</v>
+        <v>684</v>
       </c>
       <c r="B732" s="0" t="s">
         <v>164</v>
@@ -9771,12 +10109,12 @@
         <v>19</v>
       </c>
       <c r="E732" s="0" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="B733" s="0" t="s">
         <v>164</v>
@@ -9785,12 +10123,12 @@
         <v>19</v>
       </c>
       <c r="E733" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>674</v>
+        <v>686</v>
       </c>
       <c r="B734" s="0" t="s">
         <v>164</v>
@@ -9799,12 +10137,12 @@
         <v>19</v>
       </c>
       <c r="E734" s="0" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>675</v>
+        <v>687</v>
       </c>
       <c r="B735" s="0" t="s">
         <v>164</v>
@@ -9813,17 +10151,17 @@
         <v>19</v>
       </c>
       <c r="E735" s="0" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="B737" s="0" t="s">
         <v>164</v>
@@ -9832,12 +10170,12 @@
         <v>19</v>
       </c>
       <c r="E737" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="B738" s="0" t="s">
         <v>164</v>
@@ -9846,12 +10184,12 @@
         <v>19</v>
       </c>
       <c r="E738" s="0" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>679</v>
+        <v>691</v>
       </c>
       <c r="B739" s="0" t="s">
         <v>164</v>
@@ -9860,12 +10198,12 @@
         <v>19</v>
       </c>
       <c r="E739" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>680</v>
+        <v>692</v>
       </c>
       <c r="B740" s="0" t="s">
         <v>164</v>
@@ -9874,12 +10212,12 @@
         <v>19</v>
       </c>
       <c r="E740" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>681</v>
+        <v>693</v>
       </c>
       <c r="B741" s="0" t="s">
         <v>164</v>
@@ -9888,12 +10226,12 @@
         <v>19</v>
       </c>
       <c r="E741" s="0" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>682</v>
+        <v>694</v>
       </c>
       <c r="B742" s="0" t="s">
         <v>164</v>
@@ -9902,12 +10240,12 @@
         <v>19</v>
       </c>
       <c r="E742" s="0" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>683</v>
+        <v>695</v>
       </c>
       <c r="B743" s="0" t="s">
         <v>164</v>
@@ -9916,12 +10254,12 @@
         <v>19</v>
       </c>
       <c r="E743" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>684</v>
+        <v>696</v>
       </c>
       <c r="B744" s="0" t="s">
         <v>164</v>
@@ -9930,12 +10268,12 @@
         <v>19</v>
       </c>
       <c r="E744" s="0" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>685</v>
+        <v>697</v>
       </c>
       <c r="B745" s="0" t="s">
         <v>164</v>
@@ -9944,12 +10282,12 @@
         <v>19</v>
       </c>
       <c r="E745" s="0" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="B746" s="0" t="s">
         <v>164</v>
@@ -9958,12 +10296,12 @@
         <v>19</v>
       </c>
       <c r="E746" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="B747" s="0" t="s">
         <v>164</v>
@@ -9972,12 +10310,12 @@
         <v>19</v>
       </c>
       <c r="E747" s="0" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="B748" s="0" t="s">
         <v>164</v>
@@ -9986,17 +10324,17 @@
         <v>19</v>
       </c>
       <c r="E748" s="0" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="B750" s="0" t="s">
         <v>164</v>
@@ -10005,12 +10343,12 @@
         <v>19</v>
       </c>
       <c r="E750" s="0" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="B751" s="0" t="s">
         <v>164</v>
@@ -10019,12 +10357,12 @@
         <v>19</v>
       </c>
       <c r="E751" s="0" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="B752" s="0" t="s">
         <v>164</v>
@@ -10033,12 +10371,12 @@
         <v>19</v>
       </c>
       <c r="E752" s="0" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="B753" s="0" t="s">
         <v>164</v>
@@ -10047,12 +10385,12 @@
         <v>19</v>
       </c>
       <c r="E753" s="0" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="B754" s="0" t="s">
         <v>164</v>
@@ -10061,12 +10399,12 @@
         <v>19</v>
       </c>
       <c r="E754" s="0" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="B755" s="0" t="s">
         <v>164</v>
@@ -10075,12 +10413,12 @@
         <v>19</v>
       </c>
       <c r="E755" s="0" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="B756" s="0" t="s">
         <v>164</v>
@@ -10089,12 +10427,12 @@
         <v>19</v>
       </c>
       <c r="E756" s="0" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="B757" s="0" t="s">
         <v>164</v>
@@ -10103,12 +10441,12 @@
         <v>19</v>
       </c>
       <c r="E757" s="0" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="B758" s="0" t="s">
         <v>164</v>
@@ -10117,12 +10455,12 @@
         <v>19</v>
       </c>
       <c r="E758" s="0" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="B759" s="0" t="s">
         <v>164</v>
@@ -10131,12 +10469,12 @@
         <v>19</v>
       </c>
       <c r="E759" s="0" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="B760" s="0" t="s">
         <v>164</v>
@@ -10145,12 +10483,12 @@
         <v>19</v>
       </c>
       <c r="E760" s="0" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="B761" s="0" t="s">
         <v>164</v>
@@ -10159,7 +10497,7 @@
         <v>19</v>
       </c>
       <c r="E761" s="0" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
     </row>
   </sheetData>
